--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AEF593-2F11-4DE4-A98B-1E2B7B08BCC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD96D3-CDED-449E-80D5-44B3D1F18370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30885" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="2580" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,16 +631,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G4" s="8">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="8">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD96D3-CDED-449E-80D5-44B3D1F18370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3D3FF4-2CA0-4253-93B9-BE8CF2C99F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="2580" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="5370" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -1,122 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3D3FF4-2CA0-4253-93B9-BE8CF2C99F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="5370" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>索引</t>
   </si>
   <si>
+    <t>资源名</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>城市格子行</t>
+  </si>
+  <si>
+    <t>主城格子列</t>
+  </si>
+  <si>
+    <t>地图总行</t>
+  </si>
+  <si>
+    <t>地图总列</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>RowCount</t>
+  </si>
+  <si>
+    <t>ColCount</t>
+  </si>
+  <si>
+    <t>MaxRowCount</t>
+  </si>
+  <si>
+    <t>MaxColCount</t>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始格子行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始格子列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图总行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图总列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxRowCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxColCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,9 +95,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -135,12 +105,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,7 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,8 +271,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,9 +466,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -193,42 +727,86 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -515,137 +1093,137 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8">
-        <v>100</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="E4" s="4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
         <v>1000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC00C02-313E-45ED-9940-AA67DA0AE241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA0FB93-AC6B-4172-85C4-F1A2955E7AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
+    <sheet name="City" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>索引</t>
   </si>
@@ -70,13 +81,269 @@
   <si>
     <t>MaxColCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayInt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buildings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部功能建筑ID|等级|数量列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3|1,2|2|3,3|2|1,4|1|1,5|1|1,6|1|1,7|3|1,22|4|1,15|2|1,16|2|1,17|3|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑中心点
+游戏坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建筑类型
+1-普通城市
+2-资源点
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤谷城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部序列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3|1,2|2|3,3|2|1,4|1|1,5|1|1,6|1|1,7|3|1,22|4|1,17|3|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>City1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>City2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级粮仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积(奇数),
+可视范围中心点左右上下范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级粮仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|2|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级粮仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级粮仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|3|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|4|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级石矿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级石矿</t>
+  </si>
+  <si>
+    <t>3级石矿</t>
+  </si>
+  <si>
+    <t>4级石矿</t>
+  </si>
+  <si>
+    <t>4|1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|2|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|3|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|4|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food2</t>
+  </si>
+  <si>
+    <t>Food3</t>
+  </si>
+  <si>
+    <t>Food4</t>
+  </si>
+  <si>
+    <t>Stone1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone2</t>
+  </si>
+  <si>
+    <t>Stone3</t>
+  </si>
+  <si>
+    <t>Stone4</t>
+  </si>
+  <si>
+    <t>7,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20,-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15,-30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25,-36</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>88,17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-65,-32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +354,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -140,7 +414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +449,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,4 +874,457 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485D0B-C69F-4872-861C-588AE16814C5}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="16.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="82.375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <f>D4*1000+E4*100+B4</f>
+        <v>1101</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A9" si="0">D5*1000+E5*100+B5</f>
+        <v>1202</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>2101</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>2102</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>2103</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>2104</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <f t="shared" ref="A10:A13" si="1">D10*1000+E10*100+B10</f>
+        <v>2201</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <f t="shared" si="1"/>
+        <v>2202</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <f t="shared" si="1"/>
+        <v>2203</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
+        <v>2204</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA0FB93-AC6B-4172-85C4-F1A2955E7AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8637D1-E958-4AD8-91DE-45CDE53A17F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>索引</t>
   </si>
@@ -336,6 +336,57 @@
   </si>
   <si>
     <t>-65,-32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索掉落列表
+类型|KeyValue,分割
+Item道具
+Hero英雄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|food:2000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|food:4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|food:6000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|food:8000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|stone:2000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|stone:4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|stone:6000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|stone:8000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestDrops</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|gold:1500,Item|food:21000,Item|stone:10300,Item|ming_hua:1,Hero|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|gold:500,Item|food:2000,Item|stone:1000,Item|jing_shu:1,Hero|2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485D0B-C69F-4872-861C-588AE16814C5}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,11 +943,12 @@
     <col min="6" max="6" width="20.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="82.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="79.625" style="17" customWidth="1"/>
     <col min="10" max="10" width="16.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="79.625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -927,8 +979,11 @@
       <c r="J1" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -959,8 +1014,11 @@
       <c r="J2" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1049,11 @@
       <c r="J3" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <f>D4*1000+E4*100+B4</f>
         <v>1101</v>
@@ -1024,8 +1085,11 @@
       <c r="J4" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A9" si="0">D5*1000+E5*100+B5</f>
         <v>1202</v>
@@ -1057,8 +1121,11 @@
       <c r="J5" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>2101</v>
@@ -1090,8 +1157,11 @@
       <c r="J6" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>2102</v>
@@ -1123,8 +1193,11 @@
       <c r="J7" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>2103</v>
@@ -1156,8 +1229,11 @@
       <c r="J8" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>2104</v>
@@ -1189,8 +1265,11 @@
       <c r="J9" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" ref="A10:A13" si="1">D10*1000+E10*100+B10</f>
         <v>2201</v>
@@ -1222,8 +1301,11 @@
       <c r="J10" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>2202</v>
@@ -1255,8 +1337,11 @@
       <c r="J11" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>2203</v>
@@ -1288,8 +1373,11 @@
       <c r="J12" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>2204</v>
@@ -1320,6 +1408,9 @@
       </c>
       <c r="J13" s="11">
         <v>8</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8637D1-E958-4AD8-91DE-45CDE53A17F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD19F973-ADDD-42E8-B99D-1084CAF3CF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD19F973-ADDD-42E8-B99D-1084CAF3CF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CBA009-9BFB-4259-AA36-6F86B5BAFE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>索引</t>
   </si>
@@ -388,6 +388,49 @@
   <si>
     <t>Item|gold:500,Item|food:2000,Item|stone:1000,Item|jing_shu:1,Hero|2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索概率天赋
+1-口才
+2-切磋
+3-棋艺
+4-酒量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:16</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:17</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:18</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:19</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:20</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:21</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:22</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:23</t>
+  </si>
+  <si>
+    <t>1:20,2:30,3:70,4:24</t>
+  </si>
+  <si>
+    <t>QuestTalents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -929,10 +972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485D0B-C69F-4872-861C-588AE16814C5}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,12 +986,13 @@
     <col min="6" max="6" width="20.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="79.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="58.625" style="17" customWidth="1"/>
     <col min="10" max="10" width="16.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="79.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="88" style="17" customWidth="1"/>
+    <col min="12" max="12" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -982,8 +1026,11 @@
       <c r="K1" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1064,11 @@
       <c r="K2" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1102,11 @@
       <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <f>D4*1000+E4*100+B4</f>
         <v>1101</v>
@@ -1088,8 +1141,11 @@
       <c r="K4" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A9" si="0">D5*1000+E5*100+B5</f>
         <v>1202</v>
@@ -1124,8 +1180,11 @@
       <c r="K5" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>2101</v>
@@ -1160,8 +1219,11 @@
       <c r="K6" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>2102</v>
@@ -1196,8 +1258,11 @@
       <c r="K7" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>2103</v>
@@ -1232,8 +1297,11 @@
       <c r="K8" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>2104</v>
@@ -1268,8 +1336,11 @@
       <c r="K9" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" ref="A10:A13" si="1">D10*1000+E10*100+B10</f>
         <v>2201</v>
@@ -1304,8 +1375,11 @@
       <c r="K10" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>2202</v>
@@ -1340,8 +1414,11 @@
       <c r="K11" s="16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>2203</v>
@@ -1376,8 +1453,11 @@
       <c r="K12" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>2204</v>
@@ -1411,6 +1491,9 @@
       </c>
       <c r="K13" s="16" t="s">
         <v>89</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CBA009-9BFB-4259-AA36-6F86B5BAFE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFB2B0-9B28-4FB5-9D5D-ED082EA0993C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1:20,2:30,3:70,4:16</t>
-  </si>
-  <si>
     <t>1:20,2:30,3:70,4:17</t>
   </si>
   <si>
@@ -431,6 +428,10 @@
   <si>
     <t>QuestTalents</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:200,2:300,3:700,4:216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -974,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485D0B-C69F-4872-861C-588AE16814C5}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1065,7 +1066,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1181,7 +1182,7 @@
         <v>92</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1220,7 +1221,7 @@
         <v>82</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1259,7 +1260,7 @@
         <v>83</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -1298,7 +1299,7 @@
         <v>84</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1337,7 +1338,7 @@
         <v>85</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1376,7 +1377,7 @@
         <v>86</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1415,7 +1416,7 @@
         <v>87</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1454,7 +1455,7 @@
         <v>88</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1493,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFB2B0-9B28-4FB5-9D5D-ED082EA0993C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF8DED-A596-4AB7-B78C-300EDDC373DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
     <sheet name="City" sheetId="2" r:id="rId2"/>
+    <sheet name="NpcTeam" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>索引</t>
   </si>
@@ -431,6 +432,114 @@
   </si>
   <si>
     <t>1:200,2:300,3:700,4:216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Army</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayInt</t>
+  </si>
+  <si>
+    <t>技能等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLvs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcTeams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDrops</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">攻占奖励
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|gold:1500,Item|food:21000,Item|stone:10300,Item|ming_hua:1,Hero|102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item|gold:500,Item|food:2000,Item|stone:1000,Item|jing_shu:1,Hero|103</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -973,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485D0B-C69F-4872-861C-588AE16814C5}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,13 +1096,15 @@
     <col min="6" max="6" width="20.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="58.625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="88" style="17" customWidth="1"/>
-    <col min="12" max="12" width="51.75" customWidth="1"/>
+    <col min="9" max="9" width="26" style="17" customWidth="1"/>
+    <col min="10" max="10" width="58.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="72" style="17" customWidth="1"/>
+    <col min="13" max="13" width="47.25" customWidth="1"/>
+    <col min="14" max="14" width="73.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1019,19 +1130,25 @@
         <v>26</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N1" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1057,19 +1174,25 @@
         <v>21</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1095,19 +1218,25 @@
         <v>20</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N3" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <f>D4*1000+E4*100+B4</f>
         <v>1101</v>
@@ -1134,19 +1263,25 @@
         <v>71</v>
       </c>
       <c r="I4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11">
+      <c r="K4" s="11">
         <v>10</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N4" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A9" si="0">D5*1000+E5*100+B5</f>
         <v>1202</v>
@@ -1173,19 +1308,25 @@
         <v>72</v>
       </c>
       <c r="I5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>15</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N5" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>2101</v>
@@ -1212,19 +1353,25 @@
         <v>73</v>
       </c>
       <c r="I6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="11">
         <v>5</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N6" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>2102</v>
@@ -1251,19 +1398,25 @@
         <v>74</v>
       </c>
       <c r="I7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="11">
         <v>6</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N7" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>2103</v>
@@ -1290,19 +1443,25 @@
         <v>75</v>
       </c>
       <c r="I8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="11">
         <v>7</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N8" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>2104</v>
@@ -1329,19 +1488,25 @@
         <v>76</v>
       </c>
       <c r="I9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>8</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N9" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" ref="A10:A13" si="1">D10*1000+E10*100+B10</f>
         <v>2201</v>
@@ -1368,19 +1533,25 @@
         <v>77</v>
       </c>
       <c r="I10" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="11">
         <v>5</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N10" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>2202</v>
@@ -1407,19 +1578,25 @@
         <v>78</v>
       </c>
       <c r="I11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="11">
+      <c r="K11" s="11">
         <v>6</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N11" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>2203</v>
@@ -1446,19 +1623,25 @@
         <v>79</v>
       </c>
       <c r="I12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="11">
+      <c r="K12" s="11">
         <v>7</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N12" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>2204</v>
@@ -1485,16 +1668,22 @@
         <v>80</v>
       </c>
       <c r="I13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="11">
+      <c r="K13" s="11">
         <v>8</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="L13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>102</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1502,4 +1691,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE1416-1CB6-4CA8-92B7-072C7B323CAE}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="19.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="4">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="4">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="4">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="4">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF8DED-A596-4AB7-B78C-300EDDC373DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FEF69-A989-46BB-8CBA-4F03B19CBAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>索引</t>
   </si>
@@ -540,6 +540,14 @@
   </si>
   <si>
     <t>Item|gold:500,Item|food:2000,Item|stone:1000,Item|jing_shu:1,Hero|103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场景ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleSceneID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1082,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485D0B-C69F-4872-861C-588AE16814C5}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,10 +1109,11 @@
     <col min="11" max="11" width="16.25" style="4" customWidth="1"/>
     <col min="12" max="12" width="72" style="17" customWidth="1"/>
     <col min="13" max="13" width="47.25" customWidth="1"/>
-    <col min="14" max="14" width="73.5" style="17" customWidth="1"/>
+    <col min="14" max="14" width="74.125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="31.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +1156,11 @@
       <c r="N1" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1191,8 +1203,11 @@
       <c r="N2" s="14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1235,8 +1250,11 @@
       <c r="N3" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <f>D4*1000+E4*100+B4</f>
         <v>1101</v>
@@ -1280,8 +1298,11 @@
       <c r="N4" s="16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A9" si="0">D5*1000+E5*100+B5</f>
         <v>1202</v>
@@ -1325,8 +1346,11 @@
       <c r="N5" s="16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>2101</v>
@@ -1370,8 +1394,11 @@
       <c r="N6" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>2102</v>
@@ -1415,8 +1442,11 @@
       <c r="N7" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>2103</v>
@@ -1460,8 +1490,11 @@
       <c r="N8" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>2104</v>
@@ -1505,8 +1538,11 @@
       <c r="N9" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" ref="A10:A13" si="1">D10*1000+E10*100+B10</f>
         <v>2201</v>
@@ -1550,8 +1586,11 @@
       <c r="N10" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>2202</v>
@@ -1595,8 +1634,11 @@
       <c r="N11" s="16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>2203</v>
@@ -1640,8 +1682,11 @@
       <c r="N12" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>2204</v>
@@ -1684,6 +1729,9 @@
       </c>
       <c r="N13" s="16" t="s">
         <v>89</v>
+      </c>
+      <c r="O13" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1697,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE1416-1CB6-4CA8-92B7-072C7B323CAE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FEF69-A989-46BB-8CBA-4F03B19CBAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AF5623-31BC-43A9-A70F-5A1405047C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
     <sheet name="City" sheetId="2" r:id="rId2"/>
     <sheet name="NpcTeam" sheetId="3" r:id="rId3"/>
+    <sheet name="BattleScene" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
   <si>
     <t>索引</t>
   </si>
@@ -548,6 +549,18 @@
   </si>
   <si>
     <t>BattleSceneID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1106,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1745,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE1416-1CB6-4CA8-92B7-072C7B323CAE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1942,4 +1955,55 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E1B0A3-972E-4E2F-A882-892B25316A01}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AF5623-31BC-43A9-A70F-5A1405047C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2682A-757E-4DB2-B67A-9E028BB2031E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="2400" windowWidth="28710" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="152">
   <si>
     <t>索引</t>
   </si>
@@ -562,6 +562,66 @@
   <si>
     <t>Scene</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowCol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackBorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方出生点ID列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenseBorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcBorns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayInt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc出生点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,15,20,18,11,17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,15,20,18,17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,18,11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -639,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +753,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485D0B-C69F-4872-861C-588AE16814C5}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,15 +1181,16 @@
     <col min="7" max="7" width="31.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="17" customWidth="1"/>
     <col min="9" max="9" width="26" style="17" customWidth="1"/>
-    <col min="10" max="10" width="58.625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="72" style="17" customWidth="1"/>
-    <col min="13" max="13" width="47.25" customWidth="1"/>
-    <col min="14" max="14" width="74.125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="31.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="45.375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="77.125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="4" customWidth="1"/>
+    <col min="13" max="13" width="72" style="17" customWidth="1"/>
+    <col min="14" max="14" width="47.25" customWidth="1"/>
+    <col min="15" max="15" width="74.125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="31.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1152,28 +1216,31 @@
         <v>26</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1202,25 +1269,28 @@
         <v>122</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1249,25 +1319,28 @@
         <v>20</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <f>D4*1000+E4*100+B4</f>
         <v>1101</v>
@@ -1297,25 +1370,28 @@
         <v>123</v>
       </c>
       <c r="J4" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>10</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A9" si="0">D5*1000+E5*100+B5</f>
         <v>1202</v>
@@ -1345,25 +1421,28 @@
         <v>124</v>
       </c>
       <c r="J5" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>15</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="O5" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="O5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>2101</v>
@@ -1393,25 +1472,28 @@
         <v>125</v>
       </c>
       <c r="J6" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>5</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="O6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>2102</v>
@@ -1441,25 +1523,28 @@
         <v>126</v>
       </c>
       <c r="J7" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>6</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="N7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>2103</v>
@@ -1489,25 +1574,28 @@
         <v>123</v>
       </c>
       <c r="J8" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>7</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>2104</v>
@@ -1537,25 +1625,28 @@
         <v>127</v>
       </c>
       <c r="J9" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>8</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" ref="A10:A13" si="1">D10*1000+E10*100+B10</f>
         <v>2201</v>
@@ -1585,25 +1676,28 @@
         <v>123</v>
       </c>
       <c r="J10" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>5</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>2202</v>
@@ -1633,25 +1727,28 @@
         <v>126</v>
       </c>
       <c r="J11" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <v>6</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="N11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="O11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>2203</v>
@@ -1681,25 +1778,28 @@
         <v>123</v>
       </c>
       <c r="J12" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>7</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>2204</v>
@@ -1729,21 +1829,24 @@
         <v>127</v>
       </c>
       <c r="J13" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>8</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="11">
+      <c r="P13" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1759,7 +1862,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1959,51 +2062,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E1B0A3-972E-4E2F-A882-892B25316A01}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="5" max="5" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>134</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2682A-757E-4DB2-B67A-9E028BB2031E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A0105-47D6-400B-8C4F-7171F205051A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2400" windowWidth="28710" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>索引</t>
   </si>
@@ -476,26 +476,6 @@
   </si>
   <si>
     <t>技能等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1216,10 +1196,10 @@
         <v>26</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>24</v>
@@ -1234,10 +1214,10 @@
         <v>93</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1266,10 +1246,10 @@
         <v>21</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>22</v>
@@ -1284,10 +1264,10 @@
         <v>103</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -1319,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>23</v>
@@ -1367,10 +1347,10 @@
         <v>71</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>25</v>
@@ -1385,7 +1365,7 @@
         <v>94</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P4" s="11">
         <v>1</v>
@@ -1418,10 +1398,10 @@
         <v>72</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>33</v>
@@ -1436,7 +1416,7 @@
         <v>104</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P5" s="11">
         <v>1</v>
@@ -1469,10 +1449,10 @@
         <v>73</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>41</v>
@@ -1520,10 +1500,10 @@
         <v>74</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>43</v>
@@ -1571,10 +1551,10 @@
         <v>75</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>48</v>
@@ -1622,10 +1602,10 @@
         <v>76</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>49</v>
@@ -1673,10 +1653,10 @@
         <v>77</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>54</v>
@@ -1724,10 +1704,10 @@
         <v>78</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>55</v>
@@ -1775,10 +1755,10 @@
         <v>79</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>56</v>
@@ -1826,10 +1806,10 @@
         <v>80</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>57</v>
@@ -1861,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE1416-1CB6-4CA8-92B7-072C7B323CAE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1905,7 +1885,7 @@
         <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>107</v>
@@ -1944,8 +1924,8 @@
       <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>116</v>
+      <c r="D4" s="11">
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>11</v>
@@ -1964,8 +1944,8 @@
       <c r="C5" s="4">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>117</v>
+      <c r="D5" s="11">
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>21</v>
@@ -1984,8 +1964,8 @@
       <c r="C6" s="4">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>118</v>
+      <c r="D6" s="11">
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>31</v>
@@ -2004,8 +1984,8 @@
       <c r="C7" s="4">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>116</v>
+      <c r="D7" s="11">
+        <v>3</v>
       </c>
       <c r="E7" s="4">
         <v>12</v>
@@ -2024,8 +2004,8 @@
       <c r="C8" s="4">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>119</v>
+      <c r="D8" s="11">
+        <v>4</v>
       </c>
       <c r="E8" s="4">
         <v>22</v>
@@ -2044,8 +2024,8 @@
       <c r="C9" s="4">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>120</v>
+      <c r="D9" s="11">
+        <v>5</v>
       </c>
       <c r="E9" s="4">
         <v>32</v>
@@ -2064,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E1B0A3-972E-4E2F-A882-892B25316A01}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2081,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2098,16 +2078,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2132,16 +2112,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="D4" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A0105-47D6-400B-8C4F-7171F205051A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0378530-8D71-4114-9176-93005F75395C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4">
-        <v>5000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1951,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="4">
-        <v>2000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1971,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="4">
-        <v>15000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1991,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4">
-        <v>4000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2011,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4">
-        <v>3000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2031,7 +2031,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="4">
-        <v>8000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/World.xlsx
+++ b/Excel/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0378530-8D71-4114-9176-93005F75395C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D9ED2-FD9D-41A3-AE94-EBF434C1E8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1951,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="4">
-        <v>150</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1971,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="4">
-        <v>180</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1991,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4">
-        <v>160</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2011,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4">
-        <v>130</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2031,7 +2031,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="4">
-        <v>100</v>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2045,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
